--- a/mbs-perturbation/bloated/elm/nearmiss/bloated_elm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/bloated/elm/nearmiss/bloated_elm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.48</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6934523809523809</v>
+        <v>0.8492063492063492</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.6461538461538461</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2293333333333333</v>
+        <v>0.4617184265010352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.6717948717948717</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1830630630630631</v>
+        <v>0.5174306086070792</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5379578754578754</v>
+        <v>0.5990720390720391</v>
       </c>
     </row>
   </sheetData>
